--- a/Data y gráficos/Gráficos de Tesis/Tabla 3.xlsx
+++ b/Data y gráficos/Gráficos de Tesis/Tabla 3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2497e95eb19b2b76/Desktop/GABO/TESIS/Tesis-paper/Data y gráficos/Gráficos de Tesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{97ABC1FB-597A-479B-80AB-54766DA82054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="14_{97ABC1FB-597A-479B-80AB-54766DA82054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02A8E145-13B3-4D10-AC60-6E590F61CD7F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="29">
   <si>
     <t>Fecha</t>
   </si>
@@ -301,7 +301,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -346,9 +346,8 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -663,7 +662,7 @@
   <dimension ref="A1:AA84"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U19" sqref="U19:AA25"/>
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -802,41 +801,41 @@
       <c r="M3" s="3">
         <v>6.1738814818163661</v>
       </c>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20" t="s">
+      <c r="O3" s="19"/>
+      <c r="P3" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="Q3" s="20" t="s">
+      <c r="Q3" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="R3" s="20" t="s">
+      <c r="R3" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="S3" s="20" t="s">
+      <c r="S3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="20" t="s">
+      <c r="T3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="U3" s="20" t="s">
+      <c r="U3" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="V3" s="20" t="s">
+      <c r="V3" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="W3" s="20" t="s">
+      <c r="W3" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="X3" s="20" t="s">
+      <c r="X3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="Y3" s="20" t="s">
+      <c r="Y3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="Z3" s="20" t="s">
+      <c r="Z3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="AA3" s="20" t="s">
+      <c r="AA3" s="19" t="s">
         <v>11</v>
       </c>
     </row>
@@ -880,23 +879,12 @@
       <c r="M4" s="3">
         <v>5.9504458288125059</v>
       </c>
-      <c r="O4" s="18" t="s">
+      <c r="O4" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="18">
+      <c r="P4">
         <v>1</v>
       </c>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18"/>
-      <c r="X4" s="18"/>
-      <c r="Y4" s="18"/>
-      <c r="Z4" s="18"/>
-      <c r="AA4" s="18"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
@@ -938,25 +926,15 @@
       <c r="M5" s="3">
         <v>6.9460337226650291</v>
       </c>
-      <c r="O5" s="18" t="s">
+      <c r="O5" t="s">
         <v>24</v>
       </c>
-      <c r="P5" s="18">
+      <c r="P5">
         <v>-0.20704688890563924</v>
       </c>
-      <c r="Q5" s="18">
+      <c r="Q5">
         <v>1</v>
       </c>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
-      <c r="W5" s="18"/>
-      <c r="X5" s="18"/>
-      <c r="Y5" s="18"/>
-      <c r="Z5" s="18"/>
-      <c r="AA5" s="18"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
@@ -998,27 +976,18 @@
       <c r="M6" s="3">
         <v>7.2401389439593764</v>
       </c>
-      <c r="O6" s="18" t="s">
+      <c r="O6" t="s">
         <v>25</v>
       </c>
-      <c r="P6" s="18">
+      <c r="P6">
         <v>-0.14512460472195951</v>
       </c>
-      <c r="Q6" s="18">
+      <c r="Q6">
         <v>-2.3299228897330545E-2</v>
       </c>
-      <c r="R6" s="18">
+      <c r="R6">
         <v>1</v>
       </c>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18"/>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="18"/>
-      <c r="AA6" s="18"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
@@ -1060,29 +1029,21 @@
       <c r="M7" s="3">
         <v>5.9978877341686552</v>
       </c>
-      <c r="O7" s="18" t="s">
+      <c r="O7" t="s">
         <v>12</v>
       </c>
-      <c r="P7" s="18">
+      <c r="P7">
         <v>0.17466697947786011</v>
       </c>
-      <c r="Q7" s="18">
+      <c r="Q7">
         <v>0.92572985014162956</v>
       </c>
-      <c r="R7" s="18">
+      <c r="R7">
         <v>-2.6581734986531595E-2</v>
       </c>
-      <c r="S7" s="18">
+      <c r="S7">
         <v>1</v>
       </c>
-      <c r="T7" s="18"/>
-      <c r="U7" s="18"/>
-      <c r="V7" s="18"/>
-      <c r="W7" s="18"/>
-      <c r="X7" s="18"/>
-      <c r="Y7" s="18"/>
-      <c r="Z7" s="18"/>
-      <c r="AA7" s="18"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
@@ -1124,31 +1085,24 @@
       <c r="M8" s="3">
         <v>-2.3672885074556973</v>
       </c>
-      <c r="O8" s="18" t="s">
+      <c r="O8" t="s">
         <v>1</v>
       </c>
-      <c r="P8" s="18">
+      <c r="P8">
         <v>0.13164974031658921</v>
       </c>
-      <c r="Q8" s="18">
+      <c r="Q8">
         <v>1.455485301805334E-2</v>
       </c>
-      <c r="R8" s="18">
+      <c r="R8">
         <v>0.25604051161052743</v>
       </c>
-      <c r="S8" s="18">
+      <c r="S8">
         <v>7.9907305213562818E-2</v>
       </c>
-      <c r="T8" s="18">
+      <c r="T8">
         <v>1</v>
       </c>
-      <c r="U8" s="18"/>
-      <c r="V8" s="18"/>
-      <c r="W8" s="18"/>
-      <c r="X8" s="18"/>
-      <c r="Y8" s="18"/>
-      <c r="Z8" s="18"/>
-      <c r="AA8" s="18"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
@@ -1190,33 +1144,27 @@
       <c r="M9" s="3">
         <v>-1.0562070487594142</v>
       </c>
-      <c r="O9" s="18" t="s">
+      <c r="O9" t="s">
         <v>26</v>
       </c>
-      <c r="P9" s="18">
+      <c r="P9">
         <v>-0.23285831980486285</v>
       </c>
-      <c r="Q9" s="18">
+      <c r="Q9">
         <v>0.12013489963894734</v>
       </c>
-      <c r="R9" s="18">
+      <c r="R9">
         <v>-8.2462971479512329E-2</v>
       </c>
-      <c r="S9" s="18">
+      <c r="S9">
         <v>2.5583305991821223E-2</v>
       </c>
-      <c r="T9" s="18">
+      <c r="T9">
         <v>-6.4573285898606364E-2</v>
       </c>
-      <c r="U9" s="18">
+      <c r="U9">
         <v>1</v>
       </c>
-      <c r="V9" s="18"/>
-      <c r="W9" s="18"/>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="18"/>
-      <c r="Z9" s="18"/>
-      <c r="AA9" s="18"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
@@ -1258,35 +1206,30 @@
       <c r="M10" s="3">
         <v>7.6239688469081051</v>
       </c>
-      <c r="O10" s="18" t="s">
+      <c r="O10" t="s">
         <v>27</v>
       </c>
-      <c r="P10" s="18">
+      <c r="P10">
         <v>7.0553760165795509E-2</v>
       </c>
-      <c r="Q10" s="18">
+      <c r="Q10">
         <v>-0.4926268792377026</v>
       </c>
-      <c r="R10" s="18">
+      <c r="R10">
         <v>-0.2229823552167263</v>
       </c>
-      <c r="S10" s="18">
+      <c r="S10">
         <v>-0.48092166751930776</v>
       </c>
-      <c r="T10" s="18">
+      <c r="T10">
         <v>-0.13570481427930292</v>
       </c>
-      <c r="U10" s="18">
+      <c r="U10">
         <v>-6.9088637558925026E-2</v>
       </c>
-      <c r="V10" s="18">
+      <c r="V10">
         <v>1</v>
       </c>
-      <c r="W10" s="18"/>
-      <c r="X10" s="18"/>
-      <c r="Y10" s="18"/>
-      <c r="Z10" s="18"/>
-      <c r="AA10" s="18"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
@@ -1328,37 +1271,33 @@
       <c r="M11" s="3">
         <v>7.5273677987504684</v>
       </c>
-      <c r="O11" s="18" t="s">
+      <c r="O11" t="s">
         <v>28</v>
       </c>
-      <c r="P11" s="18">
+      <c r="P11">
         <v>0.20675854405709368</v>
       </c>
-      <c r="Q11" s="18">
+      <c r="Q11">
         <v>-2.0098668190635414E-2</v>
       </c>
-      <c r="R11" s="18">
+      <c r="R11">
         <v>-0.15037003875854574</v>
       </c>
-      <c r="S11" s="18">
+      <c r="S11">
         <v>5.2545048164962367E-2</v>
       </c>
-      <c r="T11" s="18">
+      <c r="T11">
         <v>-9.3112309950393518E-2</v>
       </c>
-      <c r="U11" s="18">
+      <c r="U11">
         <v>-2.7823172293168347E-4</v>
       </c>
-      <c r="V11" s="18">
+      <c r="V11">
         <v>0.10480446039979391</v>
       </c>
-      <c r="W11" s="18">
+      <c r="W11">
         <v>1</v>
       </c>
-      <c r="X11" s="18"/>
-      <c r="Y11" s="18"/>
-      <c r="Z11" s="18"/>
-      <c r="AA11" s="18"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
@@ -1400,39 +1339,36 @@
       <c r="M12" s="3">
         <v>26.320829098218663</v>
       </c>
-      <c r="O12" s="18" t="s">
+      <c r="O12" t="s">
         <v>7</v>
       </c>
-      <c r="P12" s="18">
+      <c r="P12">
         <v>0.15186302513094788</v>
       </c>
-      <c r="Q12" s="18">
+      <c r="Q12">
         <v>-0.46702403538111525</v>
       </c>
-      <c r="R12" s="18">
+      <c r="R12">
         <v>-0.20500788258739225</v>
       </c>
-      <c r="S12" s="18">
+      <c r="S12">
         <v>-0.42234588101876647</v>
       </c>
-      <c r="T12" s="18">
+      <c r="T12">
         <v>-3.1455510411328491E-2</v>
       </c>
-      <c r="U12" s="18">
+      <c r="U12">
         <v>-6.4722770520407411E-2</v>
       </c>
-      <c r="V12" s="18">
+      <c r="V12">
         <v>0.94855685819955271</v>
       </c>
-      <c r="W12" s="18">
+      <c r="W12">
         <v>0.15988045361809264</v>
       </c>
-      <c r="X12" s="18">
+      <c r="X12">
         <v>1</v>
       </c>
-      <c r="Y12" s="18"/>
-      <c r="Z12" s="18"/>
-      <c r="AA12" s="18"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
@@ -1474,41 +1410,39 @@
       <c r="M13" s="3">
         <v>20.018446405754649</v>
       </c>
-      <c r="O13" s="18" t="s">
+      <c r="O13" t="s">
         <v>8</v>
       </c>
-      <c r="P13" s="18">
+      <c r="P13">
         <v>-9.740326776727086E-3</v>
       </c>
-      <c r="Q13" s="18">
+      <c r="Q13">
         <v>-0.32790221511473977</v>
       </c>
-      <c r="R13" s="18">
+      <c r="R13">
         <v>-0.21920976439263534</v>
       </c>
-      <c r="S13" s="18">
+      <c r="S13">
         <v>-0.34608935288378156</v>
       </c>
-      <c r="T13" s="18">
+      <c r="T13">
         <v>-0.25798647530287494</v>
       </c>
-      <c r="U13" s="18">
+      <c r="U13">
         <v>-5.2809621719763923E-2</v>
       </c>
-      <c r="V13" s="18">
+      <c r="V13">
         <v>0.88777167590703021</v>
       </c>
-      <c r="W13" s="18">
+      <c r="W13">
         <v>6.480092939431778E-2</v>
       </c>
-      <c r="X13" s="18">
+      <c r="X13">
         <v>0.83333539752045327</v>
       </c>
-      <c r="Y13" s="18">
+      <c r="Y13">
         <v>1</v>
       </c>
-      <c r="Z13" s="18"/>
-      <c r="AA13" s="18"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
@@ -1550,43 +1484,42 @@
       <c r="M14" s="3">
         <v>6.9639582766877384</v>
       </c>
-      <c r="O14" s="18" t="s">
+      <c r="O14" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="18">
+      <c r="P14">
         <v>-4.2573311905240885E-2</v>
       </c>
-      <c r="Q14" s="18">
+      <c r="Q14">
         <v>0.13744333312740187</v>
       </c>
-      <c r="R14" s="18">
+      <c r="R14">
         <v>-2.3534037369583607E-2</v>
       </c>
-      <c r="S14" s="18">
+      <c r="S14">
         <v>0.12062267372711075</v>
       </c>
-      <c r="T14" s="18">
+      <c r="T14">
         <v>-0.1510295043454532</v>
       </c>
-      <c r="U14" s="18">
+      <c r="U14">
         <v>-4.2622163775736722E-2</v>
       </c>
-      <c r="V14" s="18">
+      <c r="V14">
         <v>-0.15524129422680058</v>
       </c>
-      <c r="W14" s="18">
+      <c r="W14">
         <v>0.20128309727763882</v>
       </c>
-      <c r="X14" s="18">
+      <c r="X14">
         <v>-0.1710351749841901</v>
       </c>
-      <c r="Y14" s="18">
+      <c r="Y14">
         <v>-7.2636234021060619E-2</v>
       </c>
-      <c r="Z14" s="18">
+      <c r="Z14">
         <v>1</v>
       </c>
-      <c r="AA14" s="18"/>
     </row>
     <row r="15" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
@@ -1628,43 +1561,43 @@
       <c r="M15" s="3">
         <v>6.9237537044790187</v>
       </c>
-      <c r="O15" s="19" t="s">
+      <c r="O15" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="P15" s="19">
+      <c r="P15" s="18">
         <v>-0.17444689003341049</v>
       </c>
-      <c r="Q15" s="19">
+      <c r="Q15" s="18">
         <v>-3.2785604689038884E-2</v>
       </c>
-      <c r="R15" s="19">
+      <c r="R15" s="18">
         <v>8.5311400222861905E-2</v>
       </c>
-      <c r="S15" s="19">
+      <c r="S15" s="18">
         <v>-9.6703511444246965E-2</v>
       </c>
-      <c r="T15" s="19">
+      <c r="T15" s="18">
         <v>1.2108960486520635E-2</v>
       </c>
-      <c r="U15" s="19">
+      <c r="U15" s="18">
         <v>-2.8855278727106686E-3</v>
       </c>
-      <c r="V15" s="19">
+      <c r="V15" s="18">
         <v>9.228688151549122E-2</v>
       </c>
-      <c r="W15" s="19">
+      <c r="W15" s="18">
         <v>-0.51636493213566403</v>
       </c>
-      <c r="X15" s="19">
+      <c r="X15" s="18">
         <v>5.9611903721221736E-2</v>
       </c>
-      <c r="Y15" s="19">
+      <c r="Y15" s="18">
         <v>0.21256787111219588</v>
       </c>
-      <c r="Z15" s="19">
+      <c r="Z15" s="18">
         <v>-0.21857401295343767</v>
       </c>
-      <c r="AA15" s="19">
+      <c r="AA15" s="18">
         <v>1</v>
       </c>
     </row>
@@ -1831,40 +1764,40 @@
       <c r="M19" s="3">
         <v>16.118040428636661</v>
       </c>
-      <c r="P19" s="20" t="s">
+      <c r="P19" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="Q19" s="20" t="s">
+      <c r="Q19" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="R19" s="20" t="s">
+      <c r="R19" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="S19" s="20" t="s">
+      <c r="S19" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="T19" s="20" t="s">
+      <c r="T19" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="U19" s="20" t="s">
+      <c r="U19" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="V19" s="20" t="s">
+      <c r="V19" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="W19" s="20" t="s">
+      <c r="W19" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="X19" s="20" t="s">
+      <c r="X19" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="Y19" s="20" t="s">
+      <c r="Y19" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="Z19" s="20" t="s">
+      <c r="Z19" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="AA19" s="20" t="s">
+      <c r="AA19" s="19" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1908,43 +1841,43 @@
       <c r="M20" s="3">
         <v>20.024847631877059</v>
       </c>
-      <c r="O20" s="18" t="s">
+      <c r="O20" t="s">
         <v>14</v>
       </c>
-      <c r="P20" s="18">
+      <c r="P20">
         <v>-6.5525388932941998E-5</v>
       </c>
-      <c r="Q20" s="18">
+      <c r="Q20">
         <v>-4.7133038178827556E-5</v>
       </c>
-      <c r="R20" s="18">
+      <c r="R20">
         <v>4.8244818900038059E-5</v>
       </c>
-      <c r="S20" s="18">
+      <c r="S20">
         <v>-4.7472944532450438E-5</v>
       </c>
-      <c r="T20" s="18">
+      <c r="T20">
         <v>0.48264280914293672</v>
       </c>
-      <c r="U20" s="18">
+      <c r="U20">
         <v>1.2919521177118132E-3</v>
       </c>
-      <c r="V20" s="18">
+      <c r="V20">
         <v>4.8000465634458314</v>
       </c>
-      <c r="W20" s="18">
+      <c r="W20">
         <v>2.7018598809699803</v>
       </c>
-      <c r="X20" s="18">
+      <c r="X20">
         <v>4.6760769290250117</v>
       </c>
-      <c r="Y20" s="18">
+      <c r="Y20">
         <v>8.4730220829919709</v>
       </c>
-      <c r="Z20" s="18">
+      <c r="Z20">
         <v>19.841164646378477</v>
       </c>
-      <c r="AA20" s="18">
+      <c r="AA20">
         <v>4.2717167055929792</v>
       </c>
     </row>
@@ -1988,43 +1921,43 @@
       <c r="M21" s="3">
         <v>32.606865478160927</v>
       </c>
-      <c r="O21" s="18" t="s">
+      <c r="O21" t="s">
         <v>16</v>
       </c>
-      <c r="P21" s="18">
+      <c r="P21">
         <v>1.4601764393445075E-2</v>
       </c>
-      <c r="Q21" s="18">
+      <c r="Q21">
         <v>2.7734425109227336E-2</v>
       </c>
-      <c r="R21" s="18">
+      <c r="R21">
         <v>7.3796327628230692E-3</v>
       </c>
-      <c r="S21" s="18">
+      <c r="S21">
         <v>1.522832034434558E-2</v>
       </c>
-      <c r="T21" s="18">
+      <c r="T21">
         <v>7.5548914907318725</v>
       </c>
-      <c r="U21" s="18">
+      <c r="U21">
         <v>20.471653358778269</v>
       </c>
-      <c r="V21" s="18">
+      <c r="V21">
         <v>6.4863489544200892</v>
       </c>
-      <c r="W21" s="18">
+      <c r="W21">
         <v>1.4925781505925699</v>
       </c>
-      <c r="X21" s="18">
+      <c r="X21">
         <v>5.3570592024927839</v>
       </c>
-      <c r="Y21" s="18">
+      <c r="Y21">
         <v>22.759138157673174</v>
       </c>
-      <c r="Z21" s="18">
+      <c r="Z21">
         <v>7.706759339645183</v>
       </c>
-      <c r="AA21" s="18">
+      <c r="AA21">
         <v>11.673147701150386</v>
       </c>
     </row>
@@ -2068,43 +2001,43 @@
       <c r="M22" s="3">
         <v>31.741310929407273</v>
       </c>
-      <c r="O22" s="18" t="s">
+      <c r="O22" t="s">
         <v>17</v>
       </c>
-      <c r="P22" s="18">
+      <c r="P22">
         <v>2.0970046537837685</v>
       </c>
-      <c r="Q22" s="18">
+      <c r="Q22">
         <v>43.16056097530943</v>
       </c>
-      <c r="R22" s="18">
+      <c r="R22">
         <v>17.124206671706354</v>
       </c>
-      <c r="S22" s="18">
+      <c r="S22">
         <v>32.317358788594895</v>
       </c>
-      <c r="T22" s="18">
+      <c r="T22">
         <v>0.93793578056033677</v>
       </c>
-      <c r="U22" s="18">
+      <c r="U22">
         <v>8.1964564678156115</v>
       </c>
-      <c r="V22" s="18">
+      <c r="V22">
         <v>22.691945209359563</v>
       </c>
-      <c r="W22" s="18">
+      <c r="W22">
         <v>0.3506789123365337</v>
       </c>
-      <c r="X22" s="18">
+      <c r="X22">
         <v>15.637879569176945</v>
       </c>
-      <c r="Y22" s="18">
+      <c r="Y22">
         <v>34.754026912277709</v>
       </c>
-      <c r="Z22" s="18">
+      <c r="Z22">
         <v>3.4602109772275726</v>
       </c>
-      <c r="AA22" s="18">
+      <c r="AA22">
         <v>7.5550135173758193E-2</v>
       </c>
     </row>
@@ -2148,43 +2081,43 @@
       <c r="M23" s="3">
         <v>23.305414840476178</v>
       </c>
-      <c r="O23" s="18" t="s">
+      <c r="O23" t="s">
         <v>18</v>
       </c>
-      <c r="P23" s="18">
+      <c r="P23">
         <v>-0.60082589384850782</v>
       </c>
-      <c r="Q23" s="18">
+      <c r="Q23">
         <v>5.3178648864016944</v>
       </c>
-      <c r="R23" s="18">
+      <c r="R23">
         <v>1.7709943778754402</v>
       </c>
-      <c r="S23" s="18">
+      <c r="S23">
         <v>4.2602606566808525</v>
       </c>
-      <c r="T23" s="18">
+      <c r="T23">
         <v>0.27203770579443665</v>
       </c>
-      <c r="U23" s="18">
+      <c r="U23">
         <v>1.1281286292807542</v>
       </c>
-      <c r="V23" s="18">
+      <c r="V23">
         <v>0.3774636609969747</v>
       </c>
-      <c r="W23" s="18">
+      <c r="W23">
         <v>0.38352177088729839</v>
       </c>
-      <c r="X23" s="18">
+      <c r="X23">
         <v>-0.35721287174061184</v>
       </c>
-      <c r="Y23" s="18">
+      <c r="Y23">
         <v>4.5022992417044945</v>
       </c>
-      <c r="Z23" s="18">
+      <c r="Z23">
         <v>1.6018537968547548</v>
       </c>
-      <c r="AA23" s="18">
+      <c r="AA23">
         <v>0.45390263358965721</v>
       </c>
     </row>
@@ -2228,43 +2161,43 @@
       <c r="M24" s="3">
         <v>18.487749217431865</v>
       </c>
-      <c r="O24" s="18" t="s">
+      <c r="O24" t="s">
         <v>19</v>
       </c>
-      <c r="P24" s="18">
+      <c r="P24">
         <v>-4.9350469041922647E-2</v>
       </c>
-      <c r="Q24" s="18">
+      <c r="Q24">
         <v>-6.6230035814917335E-2</v>
       </c>
-      <c r="R24" s="18">
+      <c r="R24">
         <v>-2.9589618875869889E-2</v>
       </c>
-      <c r="S24" s="18">
+      <c r="S24">
         <v>-3.4642624505866353E-2</v>
       </c>
-      <c r="T24" s="18">
+      <c r="T24">
         <v>-19.391329935332649</v>
       </c>
-      <c r="U24" s="18">
+      <c r="U24">
         <v>-64.095892074577776</v>
       </c>
-      <c r="V24" s="18">
+      <c r="V24">
         <v>-30.003053161498144</v>
       </c>
-      <c r="W24" s="18">
+      <c r="W24">
         <v>-1.0107512675069825</v>
       </c>
-      <c r="X24" s="18">
+      <c r="X24">
         <v>-23.045109902734215</v>
       </c>
-      <c r="Y24" s="18">
+      <c r="Y24">
         <v>-59.545157920629265</v>
       </c>
-      <c r="Z24" s="18">
+      <c r="Z24">
         <v>10.12000020345052</v>
       </c>
-      <c r="AA24" s="18">
+      <c r="AA24">
         <v>-22.371641851925204</v>
       </c>
     </row>
@@ -2308,43 +2241,43 @@
       <c r="M25" s="3">
         <v>5.1081408263339023</v>
       </c>
-      <c r="O25" s="18" t="s">
+      <c r="O25" t="s">
         <v>20</v>
       </c>
-      <c r="P25" s="18">
+      <c r="P25">
         <v>3.6026767621794673E-2</v>
       </c>
-      <c r="Q25" s="18">
+      <c r="Q25">
         <v>0.21278786593309321</v>
       </c>
-      <c r="R25" s="18">
+      <c r="R25">
         <v>4.3818282222052612E-2</v>
       </c>
-      <c r="S25" s="18">
+      <c r="S25">
         <v>0.10910183238786959</v>
       </c>
-      <c r="T25" s="18">
+      <c r="T25">
         <v>24.19915239634863</v>
       </c>
-      <c r="U25" s="18">
+      <c r="U25">
         <v>101.1592878999537</v>
       </c>
-      <c r="V25" s="18">
+      <c r="V25">
         <v>42.232351230269494</v>
       </c>
-      <c r="W25" s="18">
+      <c r="W25">
         <v>6.6458125589804542</v>
       </c>
-      <c r="X25" s="18">
+      <c r="X25">
         <v>31.491696997270296</v>
       </c>
-      <c r="Y25" s="18">
+      <c r="Y25">
         <v>173.94589981543629</v>
       </c>
-      <c r="Z25" s="18">
+      <c r="Z25">
         <v>51.723332722981773</v>
       </c>
-      <c r="AA25" s="18">
+      <c r="AA25">
         <v>34.091999964571883</v>
       </c>
     </row>
@@ -5168,10 +5101,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B2AF68E-556C-44AF-96DD-CBE72AAEA2E8}">
-  <dimension ref="B2:I13"/>
+  <dimension ref="B2:H16"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="150" workbookViewId="0">
-      <selection activeCell="H12" sqref="B3:H12"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5180,7 +5113,7 @@
     <col min="3" max="8" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -5189,7 +5122,7 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="2:9" ht="28.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" ht="28.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="8" t="s">
         <v>21</v>
       </c>
@@ -5212,220 +5145,283 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="20">
+        <v>-6.5525388932941998E-5</v>
+      </c>
+      <c r="D4" s="10">
+        <v>1.4601764393445075E-2</v>
+      </c>
+      <c r="E4" s="10">
+        <v>2.0970046537837685</v>
+      </c>
+      <c r="F4" s="10">
+        <v>-0.60082589384850782</v>
+      </c>
+      <c r="G4" s="10">
+        <v>-4.9350469041922647E-2</v>
+      </c>
+      <c r="H4" s="11">
+        <v>3.6026767621794673E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="20">
+        <v>4.8244818900038059E-5</v>
+      </c>
+      <c r="D5" s="10">
+        <v>7.3796327628230692E-3</v>
+      </c>
+      <c r="E5" s="10">
+        <v>17.124206671706354</v>
+      </c>
+      <c r="F5" s="10">
+        <v>1.7709943778754402</v>
+      </c>
+      <c r="G5" s="10">
+        <v>-2.9589618875869889E-2</v>
+      </c>
+      <c r="H5" s="11">
+        <v>4.3818282222052612E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="20">
+        <v>-4.7133038178827556E-5</v>
+      </c>
+      <c r="D6" s="10">
+        <v>2.7734425109227336E-2</v>
+      </c>
+      <c r="E6" s="10">
+        <v>43.16056097530943</v>
+      </c>
+      <c r="F6" s="10">
+        <v>5.3178648864016944</v>
+      </c>
+      <c r="G6" s="10">
+        <v>-6.6230035814917335E-2</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0.21278786593309321</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C7" s="20">
         <v>-4.7472944532450438E-5</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D7" s="10">
         <v>1.522832034434558E-2</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E7" s="10">
         <v>32.317358788594895</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F7" s="10">
         <v>4.2602606566808525</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G7" s="10">
         <v>-3.4642624505866353E-2</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H7" s="11">
         <v>0.10910183238786959</v>
       </c>
-      <c r="I4" s="18"/>
-    </row>
-    <row r="5" spans="2:9" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="7" t="s">
+    </row>
+    <row r="8" spans="2:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C8" s="10">
         <v>0.48264280914293672</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D8" s="10">
         <v>7.5548914907318725</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E8" s="10">
         <v>0.93793578056033677</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F8" s="10">
         <v>0.27203770579443665</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G8" s="10">
         <v>-19.391329935332649</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H8" s="11">
         <v>24.19915239634863</v>
       </c>
-      <c r="I5" s="18"/>
-    </row>
-    <row r="6" spans="2:9" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="7" t="s">
+    </row>
+    <row r="9" spans="2:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C9" s="21">
         <v>1.2919521177118132E-3</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D9" s="10">
         <v>20.471653358778269</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E9" s="10">
         <v>8.1964564678156115</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F9" s="10">
         <v>1.1281286292807542</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G9" s="10">
         <v>-64.095892074577776</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H9" s="11">
         <v>101.1592878999537</v>
       </c>
-      <c r="I6" s="18"/>
-    </row>
-    <row r="7" spans="2:9" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="7" t="s">
+    </row>
+    <row r="10" spans="2:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C10" s="10">
         <v>4.8000465634458314</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D10" s="10">
         <v>6.4863489544200892</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E10" s="10">
         <v>22.691945209359563</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F10" s="10">
         <v>0.3774636609969747</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G10" s="10">
         <v>-30.003053161498144</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H10" s="11">
         <v>42.232351230269494</v>
       </c>
-      <c r="I7" s="18"/>
-    </row>
-    <row r="8" spans="2:9" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="7" t="s">
+    </row>
+    <row r="11" spans="2:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C11" s="10">
         <v>2.7018598809699803</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D11" s="10">
         <v>1.4925781505925699</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E11" s="10">
         <v>0.3506789123365337</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F11" s="10">
         <v>0.38352177088729839</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G11" s="10">
         <v>-1.0107512675069825</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H11" s="11">
         <v>6.6458125589804542</v>
       </c>
-      <c r="I8" s="18"/>
-    </row>
-    <row r="9" spans="2:9" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="7" t="s">
+    </row>
+    <row r="12" spans="2:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C12" s="10">
         <v>4.6760769290250117</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D12" s="10">
         <v>5.3570592024927839</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E12" s="10">
         <v>15.637879569176945</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F12" s="10">
         <v>-0.35721287174061184</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G12" s="10">
         <v>-23.045109902734215</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H12" s="11">
         <v>31.491696997270296</v>
       </c>
-      <c r="I9" s="18"/>
-    </row>
-    <row r="10" spans="2:9" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="7" t="s">
+    </row>
+    <row r="13" spans="2:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C13" s="10">
         <v>8.4730220829919709</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D13" s="10">
         <v>22.759138157673174</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E13" s="10">
         <v>34.754026912277709</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F13" s="10">
         <v>4.5022992417044945</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G13" s="10">
         <v>-59.545157920629265</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H13" s="11">
         <v>173.94589981543629</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="7" t="s">
+    <row r="14" spans="2:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C14" s="10">
         <v>19.841164646378477</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D14" s="10">
         <v>7.706759339645183</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E14" s="10">
         <v>3.4602109772275726</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F14" s="10">
         <v>1.6018537968547548</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G14" s="10">
         <v>10.12000020345052</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H14" s="11">
         <v>51.723332722981773</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="9" t="s">
+    <row r="15" spans="2:8" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C15" s="12">
         <v>4.2717167055929792</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D15" s="12">
         <v>11.673147701150386</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E15" s="12">
         <v>7.5550135173758193E-2</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F15" s="12">
         <v>0.45390263358965721</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G15" s="12">
         <v>-22.371641851925204</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H15" s="13">
         <v>34.091999964571883</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
